--- a/Results/Classification/Control vs Atypical/Control 2 (0, 9, 3, 7, 4)/Atypical 1 (2, 6, 9, 3, 5)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Control vs Atypical/Control 2 (0, 9, 3, 7, 4)/Atypical 1 (2, 6, 9, 3, 5)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5.955748490254904E-19</v>
+        <v>0.06401555221885813</v>
       </c>
       <c r="E2">
-        <v>5.955748490254904E-19</v>
+        <v>0.06401555221885813</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.5578998287766188</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5578998287766188</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5.177906103881469E-09</v>
+        <v>0.9638272997445375</v>
       </c>
       <c r="E4">
-        <v>5.177906103881469E-09</v>
+        <v>0.9638272997445375</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.5467079596503565</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5467079596503565</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.06494869843063092</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.06494869843063092</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.301102777016559E-38</v>
+        <v>0.261455180963484</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.738544819036516</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.001349037675607464</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.9986509623243925</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2564839591102162</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.7435160408897838</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.544293350154333</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.455706649845667</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1462554457326323</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.8537445542673676</v>
       </c>
       <c r="F11">
-        <v>63.467529296875</v>
+        <v>1.690141081809998</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -602,13 +602,13 @@
         <v>200</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.0280263227034615</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.0280263227034615</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.07652751612780348</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.07652751612780348</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.9911137822305138</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.9911137822305138</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -644,13 +644,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.7118829222330738</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.7118829222330738</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>9.172630958891145E-16</v>
+        <v>0.02558194014012758</v>
       </c>
       <c r="E16">
-        <v>9.172630958891145E-16</v>
+        <v>0.02558194014012758</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.163815818439547E-20</v>
+        <v>0.2006394850985493</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.7993605149014507</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>5.710622041613605E-05</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.9999428937795839</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.1533877439450247</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.8466122560549753</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.6283050990847286</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.3716949009152714</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.06776519152352389</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.9322348084764761</v>
       </c>
       <c r="F21">
-        <v>77.24613952636719</v>
+        <v>2.250966310501099</v>
       </c>
       <c r="G21">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
